--- a/NA_aas_unique.xlsx
+++ b/NA_aas_unique.xlsx
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
